--- a/G For Grandetta Balance Sheet.xlsx
+++ b/G For Grandetta Balance Sheet.xlsx
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300905E2-E506-4E7A-B109-6714F633B6E0}">
   <dimension ref="B1:V91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I70" workbookViewId="0">
-      <selection activeCell="T85" sqref="T85"/>
+    <sheetView tabSelected="1" topLeftCell="J6" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,11 +1461,11 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="N18" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O18" s="6">
         <f>SUM(N18)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P18" s="7">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>0.375</v>
       </c>
       <c r="N19" s="5">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O19" s="6">
         <f>SUM(N18:N19)</f>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="N26" s="8">
         <f xml:space="preserve"> (N18*P18+N19*P19+N20*P20+N21*P21+N22*P22)/100</f>
-        <v>1.1100000000000001</v>
+        <v>1.41</v>
       </c>
       <c r="O26" s="9"/>
       <c r="P26" s="10"/>
@@ -2281,11 +2281,11 @@
         <v>0</v>
       </c>
       <c r="Q57" s="5">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="R57" s="6">
         <f>SUM(Q57)</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="S57" s="7">
         <v>1</v>
@@ -2313,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="Q58" s="5">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="R58" s="6">
         <f>SUM(Q57:Q58)</f>
@@ -2465,7 +2465,7 @@
       <c r="P65" s="10"/>
       <c r="Q65" s="8">
         <f xml:space="preserve"> (Q57*S57+Q58*S58+Q59*S59+Q60*S60+Q61*S61)/100</f>
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="R65" s="9"/>
       <c r="S65" s="10"/>

--- a/G For Grandetta Balance Sheet.xlsx
+++ b/G For Grandetta Balance Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
   <si>
     <t>G For Grandetta Balance</t>
   </si>
@@ -135,6 +135,51 @@
   </si>
   <si>
     <t>Luck.</t>
+  </si>
+  <si>
+    <t>Gauntlet</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>Chest</t>
+  </si>
+  <si>
+    <t>Helmet</t>
+  </si>
+  <si>
+    <t>Boots</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Leather</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Apprentice</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Hats Cost</t>
+  </si>
+  <si>
+    <t>Chain Mail</t>
+  </si>
+  <si>
+    <t>Magic Cost</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -158,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -298,11 +343,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -318,6 +400,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,13 +719,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300905E2-E506-4E7A-B109-6714F633B6E0}">
   <dimension ref="B1:V91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J6" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
@@ -1292,7 +1378,7 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
+        <f>$L$4*E15+C14</f>
         <v>1935</v>
       </c>
       <c r="D15">
@@ -1738,13 +1824,109 @@
       <c r="U26" s="9"/>
       <c r="V26" s="10"/>
     </row>
-    <row r="28" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <f>SUM(C28:G28)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
+        <v>1000</v>
+      </c>
+    </row>
     <row r="29" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="6">
+        <v>250</v>
+      </c>
+      <c r="D29" s="6">
+        <v>40</v>
+      </c>
+      <c r="E29" s="6">
+        <v>25</v>
+      </c>
+      <c r="F29" s="6">
+        <v>20</v>
+      </c>
+      <c r="G29" s="6">
+        <v>15</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" ref="H29:H33" si="15">SUM(C29:G29)</f>
+        <v>350</v>
+      </c>
       <c r="N29" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="6">
+        <v>750</v>
+      </c>
+      <c r="D30" s="6">
+        <v>300</v>
+      </c>
+      <c r="E30" s="6">
+        <v>150</v>
+      </c>
+      <c r="F30" s="6">
+        <v>100</v>
+      </c>
+      <c r="G30" s="6">
+        <v>75</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="15"/>
+        <v>1375</v>
+      </c>
       <c r="N30" s="11" t="s">
         <v>23</v>
       </c>
@@ -1774,6 +1956,28 @@
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D31" s="6">
+        <v>750</v>
+      </c>
+      <c r="E31" s="6">
+        <v>650</v>
+      </c>
+      <c r="F31" s="6">
+        <v>350</v>
+      </c>
+      <c r="G31" s="6">
+        <v>250</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="15"/>
+        <v>3000</v>
+      </c>
       <c r="N31" s="5">
         <v>45</v>
       </c>
@@ -1806,6 +2010,28 @@
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2500</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1300</v>
+      </c>
+      <c r="E32" s="6">
+        <v>800</v>
+      </c>
+      <c r="F32" s="6">
+        <v>500</v>
+      </c>
+      <c r="G32" s="6">
+        <v>400</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="15"/>
+        <v>5500</v>
+      </c>
       <c r="N32" s="5">
         <v>30</v>
       </c>
@@ -1837,7 +2063,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="9">
+        <v>6500</v>
+      </c>
+      <c r="D33" s="9">
+        <v>2500</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1500</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="9">
+        <v>800</v>
+      </c>
+      <c r="H33" s="10">
+        <f t="shared" si="15"/>
+        <v>12300</v>
+      </c>
       <c r="N33" s="5">
         <v>10</v>
       </c>
@@ -1869,7 +2117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N34" s="5">
         <v>10</v>
       </c>
@@ -1901,7 +2149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="13:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N35" s="8">
         <v>5</v>
       </c>
@@ -1933,8 +2181,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="13:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="5">
+        <v>2</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B38" s="5">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7">
+        <v>4</v>
+      </c>
       <c r="M38" s="2" t="s">
         <v>21</v>
       </c>
@@ -1945,19 +2214,25 @@
       <c r="O38" s="3"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="2">
-        <f t="shared" ref="Q38" si="15">SUM(Q31:Q37)</f>
+        <f t="shared" ref="Q38" si="16">SUM(Q31:Q37)</f>
         <v>100</v>
       </c>
       <c r="R38" s="3"/>
       <c r="S38" s="4"/>
       <c r="T38" s="3">
-        <f t="shared" ref="T38" si="16">SUM(T31:T37)</f>
+        <f t="shared" ref="T38" si="17">SUM(T31:T37)</f>
         <v>100</v>
       </c>
       <c r="U38" s="3"/>
       <c r="V38" s="4"/>
     </row>
-    <row r="39" spans="13:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="5">
+        <v>5</v>
+      </c>
+      <c r="C39" s="7">
+        <v>6</v>
+      </c>
       <c r="M39" s="8" t="s">
         <v>24</v>
       </c>
@@ -1980,7 +2255,13 @@
       <c r="U39" s="9"/>
       <c r="V39" s="10"/>
     </row>
-    <row r="40" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B40" s="5">
+        <v>10</v>
+      </c>
+      <c r="C40" s="7">
+        <v>8</v>
+      </c>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
@@ -1992,13 +2273,20 @@
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
     </row>
-    <row r="41" spans="13:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="13:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="8">
+        <v>15</v>
+      </c>
+      <c r="C41" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N42" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="13:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N43" s="11" t="s">
         <v>23</v>
       </c>
@@ -2027,7 +2315,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N44" s="5">
         <v>80</v>
       </c>
@@ -2059,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N45" s="5">
         <v>15</v>
       </c>
@@ -2091,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N46" s="5">
         <v>5</v>
       </c>
@@ -2123,7 +2411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N47" s="5">
         <v>0</v>
       </c>
@@ -2155,7 +2443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="13:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N48" s="8">
         <v>0</v>
       </c>
@@ -2199,13 +2487,13 @@
       <c r="O51" s="3"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="2">
-        <f t="shared" ref="Q51" si="17">SUM(Q44:Q50)</f>
+        <f t="shared" ref="Q51" si="18">SUM(Q44:Q50)</f>
         <v>100</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="4"/>
       <c r="T51" s="3">
-        <f t="shared" ref="T51" si="18">SUM(T44:T50)</f>
+        <f t="shared" ref="T51" si="19">SUM(T44:T50)</f>
         <v>100</v>
       </c>
       <c r="U51" s="3"/>
@@ -2441,13 +2729,13 @@
       <c r="O64" s="3"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="2">
-        <f t="shared" ref="Q64" si="19">SUM(Q57:Q63)</f>
+        <f t="shared" ref="Q64" si="20">SUM(Q57:Q63)</f>
         <v>100</v>
       </c>
       <c r="R64" s="3"/>
       <c r="S64" s="4"/>
       <c r="T64" s="3">
-        <f t="shared" ref="T64" si="20">SUM(T57:T63)</f>
+        <f t="shared" ref="T64" si="21">SUM(T57:T63)</f>
         <v>100</v>
       </c>
       <c r="U64" s="3"/>
@@ -2683,13 +2971,13 @@
       <c r="O77" s="3"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="2">
-        <f t="shared" ref="Q77" si="21">SUM(Q70:Q76)</f>
+        <f t="shared" ref="Q77" si="22">SUM(Q70:Q76)</f>
         <v>100</v>
       </c>
       <c r="R77" s="3"/>
       <c r="S77" s="4"/>
       <c r="T77" s="3">
-        <f t="shared" ref="T77" si="22">SUM(T70:T76)</f>
+        <f t="shared" ref="T77" si="23">SUM(T70:T76)</f>
         <v>100</v>
       </c>
       <c r="U77" s="3"/>
@@ -2925,13 +3213,13 @@
       <c r="O90" s="3"/>
       <c r="P90" s="4"/>
       <c r="Q90" s="2">
-        <f t="shared" ref="Q90" si="23">SUM(Q83:Q89)</f>
+        <f t="shared" ref="Q90" si="24">SUM(Q83:Q89)</f>
         <v>100</v>
       </c>
       <c r="R90" s="3"/>
       <c r="S90" s="4"/>
       <c r="T90" s="3">
-        <f t="shared" ref="T90" si="24">SUM(T83:T89)</f>
+        <f t="shared" ref="T90" si="25">SUM(T83:T89)</f>
         <v>100</v>
       </c>
       <c r="U90" s="3"/>
